--- a/EdYoda_project/MCQ Test/Progress.xlsx
+++ b/EdYoda_project/MCQ Test/Progress.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABEACE02EC358B1854CC5ADE589F" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{45D6ACAA-F460-4996-9830-1D4997A2C728}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABEACE02EC358B1854CC5ADE589F" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{493B1BA3-9CC2-4894-A3D3-D0D20665355C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1178,9 +1178,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,6 +1197,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1222,6 +1222,594 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>612420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>787680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F77FC9-ACBF-4316-9C48-D5B94E300FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12354840" y="1181100"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA75129-B257-439D-9587-842A05368777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="1211580"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphic 12" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841D29AF-BF4E-4756-B787-065D07CB2681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="1394460"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Graphic 13" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20B762C-3B9C-40EC-8F6F-BAFC899493D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="777240"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AE0AE3-C0DE-42BD-81DC-B74F8E0C474A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12374880" y="982980"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>673380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>848640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 15" descr="Close">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647553C2-8CFA-4C06-BB2C-3706F25B3CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12415800" y="1371600"/>
+          <a:ext cx="175260" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphic 16" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594BAA85-B0AE-4AAE-8F19-6B39F3CBD73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175260" y="1729740"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphic 17" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69B12C1-E28C-42FF-8928-893FB549B459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="1965960"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3901B840-DC1A-48A4-9758-5621DE89258B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129540" y="2537460"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Graphic 19" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DB0151-6713-4509-85B5-63966D9937EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121920" y="2727960"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphic 20" descr="Checkmark">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCC9B7F-34E2-451E-BC79-6FD3C839559D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="2339340"/>
+          <a:ext cx="167640" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1490,7 +2078,7 @@
   <dimension ref="A2:W44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1500,7 +2088,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23">
-      <c r="O2" s="17"/>
+      <c r="O2" s="16"/>
       <c r="Q2" t="s">
         <v>40</v>
       </c>
@@ -1512,7 +2100,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="O3" s="17"/>
+      <c r="O3" s="16"/>
       <c r="Q3" t="s">
         <v>39</v>
       </c>
@@ -1524,14 +2112,14 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="16"/>
       <c r="Q4" t="s">
         <v>34</v>
       </c>
       <c r="T4" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="26" t="s">
         <v>57</v>
       </c>
       <c r="W4" t="s">
@@ -1542,11 +2130,11 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="17"/>
+      <c r="O5" s="16"/>
       <c r="Q5" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="26" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1557,10 +2145,10 @@
       <c r="N6" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="26" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1568,114 +2156,114 @@
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="27" t="s">
+      <c r="N7" s="20"/>
+      <c r="O7" s="19"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:23" ht="15">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="27" t="s">
+      <c r="N8" s="20"/>
+      <c r="O8" s="19"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" ht="15">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16" t="s">
+      <c r="N9" s="20"/>
+      <c r="O9" s="19"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:23" ht="15">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="16"/>
-      <c r="T10" s="23" t="s">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="15"/>
+      <c r="T10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="15">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="19"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="18"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" ht="15">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="20"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="19"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
     </row>
     <row r="13" spans="1:23" ht="15">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="19"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="16"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="18"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:23" ht="15">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="19"/>
-      <c r="S14" s="24" t="s">
+      <c r="N14" s="20"/>
+      <c r="O14" s="18"/>
+      <c r="S14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="15">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="26"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="25"/>
       <c r="T15" t="s">
         <v>67</v>
       </c>
@@ -1690,7 +2278,7 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:22" ht="15.6">
       <c r="A18" s="6" t="s">
@@ -1709,29 +2297,29 @@
     </row>
     <row r="20" spans="1:22" ht="23.4">
       <c r="A20" s="2"/>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
     </row>
     <row r="21" spans="1:22" ht="18" thickBot="1">
       <c r="A21" s="2"/>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="T21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="V21" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1902,6 +2490,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1922,28 +2511,28 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:11" ht="23.4">
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="6:11" ht="19.8">
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K5" s="12"/>
